--- a/AfDD_2023_Annex_Table_Tab28.xlsx
+++ b/AfDD_2023_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab28.xlsx
+++ b/AfDD_2023_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0929F71E-A8DC-4F04-AABC-050E08CF2C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FAEB9D-93C2-4E8C-A179-67FD1B16357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{7CE284C3-D9D4-4D1E-99A7-377C4EA50A1E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{272BEC83-876F-4EE5-A414-7D5F69F7FD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: ESCAP-World Bank Trade Cost Database (updated 17 May 2022).</t>
@@ -1387,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BF14DD-FC92-4E1C-A82C-F720B6D60170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF19D9E-4737-4BD6-8819-D5BCFD9E717E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5948,11 +5948,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C4DC815A-F62A-461C-B6E4-93C6F62573DB}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{16F42BFF-2519-47E6-BE79-DAADA186020A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{04FBB8FF-8D51-40B4-9DC9-1F4A62D26C8F}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D6933247-BEB4-47A6-9D28-B6603E12ED6C}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{210D5F5B-260C-4A23-AD32-F6FFDEE8B491}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E170C079-E2DE-45BA-B8F0-F1EF045B73DE}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B65F7F9A-803B-46C1-BD3A-DA42F249F26D}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{93B3686A-3A4A-4069-B86E-BFFCCE1CF795}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9D4E7E6C-12D9-4CB0-A1E8-B248372B2CD5}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{AB805025-103D-4015-B235-493CE331D700}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab28.xlsx
+++ b/AfDD_2023_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FAEB9D-93C2-4E8C-A179-67FD1B16357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C218C90-0296-4170-B3EE-00707408A659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{272BEC83-876F-4EE5-A414-7D5F69F7FD09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6D204EB-1690-4F25-B787-DEAD2BDE0F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab28'!$A$2:$E$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab28'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -273,7 +273,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -405,7 +405,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -552,7 +552,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: ESCAP-World Bank Trade Cost Database (updated 17 May 2022).</t>
+    <t>Source: ESCAP-World Bank Trade Cost Database (updated 17/05/2022).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1387,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF19D9E-4737-4BD6-8819-D5BCFD9E717E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F9B390-2908-4DAA-9526-E11A8D16D05D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2831,43 +2831,43 @@
       <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="17" t="s">
+      <c r="C34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3843,43 +3843,43 @@
       <c r="A57" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>184.358328120675</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>165.35133368230001</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>206.19549951804501</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="20">
         <v>199.99757714491199</v>
       </c>
-      <c r="G57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="28">
+      <c r="G57" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="19">
         <v>324.74849190648303</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="20">
         <v>418.16561793497101</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="20">
         <v>320.44871550930202</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="20">
         <v>302.54869974473399</v>
       </c>
-      <c r="M57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="30" t="s">
+      <c r="M57" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5948,11 +5948,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E170C079-E2DE-45BA-B8F0-F1EF045B73DE}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B65F7F9A-803B-46C1-BD3A-DA42F249F26D}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{93B3686A-3A4A-4069-B86E-BFFCCE1CF795}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9D4E7E6C-12D9-4CB0-A1E8-B248372B2CD5}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{AB805025-103D-4015-B235-493CE331D700}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B9E9E821-7F50-4475-9866-7DC65D29B76A}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3DE18148-F02A-485F-A7A8-788683C361D6}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{312164A1-E0F7-44E5-9881-8ADFA2EA78D8}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DE86207D-BB3C-4CFF-A5DA-E8C924616944}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2F92FF42-9E19-4D8E-B827-13B2767CA282}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab28.xlsx
+++ b/AfDD_2023_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C218C90-0296-4170-B3EE-00707408A659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3948223F-3BF2-4FB6-A15A-C8078643F332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6D204EB-1690-4F25-B787-DEAD2BDE0F70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D17FE85-F73A-4744-B9EF-88A43FE73FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1387,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F9B390-2908-4DAA-9526-E11A8D16D05D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092EC1B7-69AB-45F6-A396-BCF33590E308}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5948,11 +5948,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B9E9E821-7F50-4475-9866-7DC65D29B76A}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3DE18148-F02A-485F-A7A8-788683C361D6}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{312164A1-E0F7-44E5-9881-8ADFA2EA78D8}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DE86207D-BB3C-4CFF-A5DA-E8C924616944}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2F92FF42-9E19-4D8E-B827-13B2767CA282}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C39C690F-2E6D-45B5-938A-0FFE3CAEFC54}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A4AD7047-92A3-4CEF-87AC-569EBAB37D00}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{27DF05AE-B6D4-4716-B995-C489AC6E6F6F}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4B554E82-1A2F-4C8F-88A5-E2F391F766F2}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{1CBA4220-04CA-4721-8CF1-EDC57F74BF66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab28.xlsx
+++ b/AfDD_2023_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3948223F-3BF2-4FB6-A15A-C8078643F332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF63E4C-3F55-4781-9D95-F091777F7600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D17FE85-F73A-4744-B9EF-88A43FE73FAE}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{AC6EDAF4-12E6-4589-A0F0-C0C8512D4D83}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: ESCAP-World Bank Trade Cost Database (updated 17/05/2022).</t>
@@ -1387,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092EC1B7-69AB-45F6-A396-BCF33590E308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BC98E7-AFF2-4E1C-931C-6C8D4F552D65}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5948,11 +5948,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C39C690F-2E6D-45B5-938A-0FFE3CAEFC54}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A4AD7047-92A3-4CEF-87AC-569EBAB37D00}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{27DF05AE-B6D4-4716-B995-C489AC6E6F6F}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4B554E82-1A2F-4C8F-88A5-E2F391F766F2}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{1CBA4220-04CA-4721-8CF1-EDC57F74BF66}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BBFDA50F-3350-4000-B41F-439BD06E4B66}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EBBE721E-50C2-487D-AF31-69908BD03850}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{D5AB91F8-4E2F-45DE-A480-E91ACEDD2359}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5EC658D7-60CB-41AF-97C1-7B8FD9A8FB55}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{BD74312C-BBFF-430B-A1D2-9E197933D785}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab28.xlsx
+++ b/AfDD_2023_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF63E4C-3F55-4781-9D95-F091777F7600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C3D795-8966-46E0-BC88-E6801BF7D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{AC6EDAF4-12E6-4589-A0F0-C0C8512D4D83}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{CA3E639D-FBA2-43AE-972F-BAD85B531BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="178">
   <si>
     <t>Table 28: International trade costs</t>
   </si>
@@ -558,16 +558,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BC98E7-AFF2-4E1C-931C-6C8D4F552D65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B21E37-AEFB-4AB3-8971-0FA8BC1F071E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5850,7 +5853,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" s="56"/>
       <c r="D109" s="56"/>
@@ -5867,7 +5870,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="56"/>
       <c r="D110" s="56"/>
@@ -5883,7 +5886,9 @@
       <c r="N110" s="56"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C111" s="56"/>
       <c r="D111" s="56"/>
       <c r="E111" s="56"/>
@@ -5899,7 +5904,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" s="56"/>
       <c r="D112" s="56"/>
@@ -5916,7 +5921,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="56"/>
       <c r="D113" s="56"/>
@@ -5948,13 +5953,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BBFDA50F-3350-4000-B41F-439BD06E4B66}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EBBE721E-50C2-487D-AF31-69908BD03850}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{D5AB91F8-4E2F-45DE-A480-E91ACEDD2359}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5EC658D7-60CB-41AF-97C1-7B8FD9A8FB55}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{BD74312C-BBFF-430B-A1D2-9E197933D785}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3CE76612-2796-48DF-AC3B-60EC2DEDBBCC}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{68AD3899-C303-4F10-B986-510B0DE2F8AA}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{C144FE7E-0764-4BC4-B90B-E46A7FE63193}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{20FFE55D-42C3-443A-8121-F6FE4CF9DC50}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{196D0ABC-05E7-472F-BAA8-196757F3F302}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EF1277D0-BA6A-406A-86E3-445342673F63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab28.xlsx
+++ b/AfDD_2023_Annex_Table_Tab28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C3D795-8966-46E0-BC88-E6801BF7D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7879381E-014B-4703-B8C6-693FCE326752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{CA3E639D-FBA2-43AE-972F-BAD85B531BC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{9D3E1E8F-E0B6-4826-A367-238E1A293AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab28'!$A$2:$E$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab28'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B21E37-AEFB-4AB3-8971-0FA8BC1F071E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAC4D5F-C89B-4FEF-9D5C-4C53A6CD59E5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1398,14 +1398,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.36328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.33203125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1422,7 +1422,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>268.52689847984902</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>48</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>314.31396550782398</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>67</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>69</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>71</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>73</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>75</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>79</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>81</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>83</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>36</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>278.89955633655597</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>86</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>88</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>92</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>96</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>36</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>202.50032828328</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>99</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>101</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>105</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>107</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>109</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>113</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>115</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>117</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>119</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>121</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>123</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>125</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>127</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>36</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>315.03725402507098</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>36</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>258.10655767002697</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>36</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>36</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>138.68440947428701</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>36</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>182.36218342098601</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>36</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>36</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>241.012039839479</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>36</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>243.236699984647</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>36</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>288.920959908616</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>36</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>403.14083606706799</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>36</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>315.03725402507098</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>36</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>267.43481438409498</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>36</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>272.60654783833502</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>36</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>211.71930806236901</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>36</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>438.86334080663198</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>36</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>172.96059628277899</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>36</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>178.18885772583999</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>36</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>174.84315990939101</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>36</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>182.56481656420399</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>36</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>36</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>36</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>36</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>36</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>36</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>36</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>36</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>36</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>36</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>36</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>36</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>36</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>36</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>36</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>36</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>36</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>36</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>36</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="35"/>
@@ -5706,7 +5706,7 @@
       <c r="M99" s="35"/>
       <c r="N99" s="35"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="M100" s="56"/>
       <c r="N100" s="56"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
@@ -5740,7 +5740,7 @@
       <c r="M101" s="56"/>
       <c r="N101" s="56"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -5757,7 +5757,7 @@
       <c r="M102" s="56"/>
       <c r="N102" s="56"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="M103" s="56"/>
       <c r="N103" s="56"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
@@ -5791,7 +5791,7 @@
       <c r="M104" s="56"/>
       <c r="N104" s="56"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C105" s="56"/>
       <c r="D105" s="56"/>
       <c r="E105" s="56"/>
@@ -5805,7 +5805,7 @@
       <c r="M105" s="56"/>
       <c r="N105" s="56"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C106" s="56"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
@@ -5819,7 +5819,7 @@
       <c r="M106" s="56"/>
       <c r="N106" s="56"/>
     </row>
-    <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="57" t="s">
         <v>172</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="M107" s="56"/>
       <c r="N107" s="56"/>
     </row>
-    <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="57"/>
       <c r="C108" s="56"/>
       <c r="D108" s="56"/>
@@ -5851,7 +5851,7 @@
       <c r="M108" s="56"/>
       <c r="N108" s="56"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>175</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="M109" s="56"/>
       <c r="N109" s="56"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>176</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="M110" s="56"/>
       <c r="N110" s="56"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>177</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="M111" s="56"/>
       <c r="N111" s="56"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="M112" s="56"/>
       <c r="N112" s="56"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>174</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="M113" s="56"/>
       <c r="N113" s="56"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="56"/>
       <c r="D114" s="56"/>
@@ -5953,12 +5953,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3CE76612-2796-48DF-AC3B-60EC2DEDBBCC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{68AD3899-C303-4F10-B986-510B0DE2F8AA}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{C144FE7E-0764-4BC4-B90B-E46A7FE63193}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{20FFE55D-42C3-443A-8121-F6FE4CF9DC50}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{196D0ABC-05E7-472F-BAA8-196757F3F302}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EF1277D0-BA6A-406A-86E3-445342673F63}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C139C833-F433-43AE-8734-149868CD7434}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FDABBD39-04CC-43A7-B03C-0E657AFE2FB1}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{44449A3C-55B7-4810-9C34-D6C8613214A6}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{A18AC9CD-5FD7-4AEE-8ACE-675CF7765BD6}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{941D5829-BEF3-4499-938A-77F87DE5B480}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EBAF5FB3-2578-4849-9E2A-49B1501FB2EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
